--- a/dashBrasileirao/LinksClubes.xlsx
+++ b/dashBrasileirao/LinksClubes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Projetos\3Projetos_de_Pesquisa\2020\Filipe\FilipeTCC\dashBrasileirao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Fulgêncio\Documents\github\FilipeTCC\dashBrasileirao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Links</t>
   </si>
@@ -35,29 +35,271 @@
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/America MG.png</t>
   </si>
   <si>
-    <t>America</t>
-  </si>
-  <si>
     <t>Cruzeiro</t>
   </si>
   <si>
     <t>Corinthians</t>
   </si>
   <si>
-    <t>America - RN</t>
-  </si>
-  <si>
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/America RN.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico GO.png</t>
+  </si>
+  <si>
+    <t>Atletico GO</t>
+  </si>
+  <si>
+    <t>America  RN</t>
+  </si>
+  <si>
+    <t>America  MG</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico MG.png</t>
+  </si>
+  <si>
+    <t>Atletico MG</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico PR.png</t>
+  </si>
+  <si>
+    <t>Atletico PR</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Avai.png</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Bahia.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Barueri.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Botafogo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Brasiliense.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/CSA.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Ceara.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Chapecoense.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Corinthians (1).png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Coritiba.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Criciuma.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Cruzeiro.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Figueirense.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Flamengo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Fluminense.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Fortaleza.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Goias.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Gremio Prudente.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Gremio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Internacional.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Ipatinga.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Joinville.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Juventude.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Nautico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Palmeiras.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Parana.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Paysandu.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Ponte Preta.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Portuguesa.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Santa Cruz.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Santo Andre.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Santos.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Sao Caetano.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Sao Paulo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Sport.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Vasco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Vitoria.png</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Barueri</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Criciuma</t>
+  </si>
+  <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Gremio Prudente</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Ipatinga</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Nautico</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Parana</t>
+  </si>
+  <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santo Andre</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Sao Caetano</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +322,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -387,7 +632,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -395,23 +640,336 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dashBrasileirao/LinksClubes.xlsx
+++ b/dashBrasileirao/LinksClubes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Links</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Vitoria</t>
+  </si>
+  <si>
+    <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Guarani.png</t>
+  </si>
+  <si>
+    <t>Guarani</t>
   </si>
 </sst>
 </file>
@@ -798,6 +804,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>

--- a/dashBrasileirao/LinksClubes.xlsx
+++ b/dashBrasileirao/LinksClubes.xlsx
@@ -47,27 +47,12 @@
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico GO.png</t>
   </si>
   <si>
-    <t>Atletico GO</t>
-  </si>
-  <si>
-    <t>America  RN</t>
-  </si>
-  <si>
-    <t>America  MG</t>
-  </si>
-  <si>
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico MG.png</t>
   </si>
   <si>
-    <t>Atletico MG</t>
-  </si>
-  <si>
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Atletico PR.png</t>
   </si>
   <si>
-    <t>Atletico PR</t>
-  </si>
-  <si>
     <t>https://raw.githack.com/fsbmat-ufv/FilipeTCC/master/dashBrasileirao/www/Avai.png</t>
   </si>
   <si>
@@ -288,6 +273,21 @@
   </si>
   <si>
     <t>Guarani</t>
+  </si>
+  <si>
+    <t>America-MG</t>
+  </si>
+  <si>
+    <t>America-RN</t>
+  </si>
+  <si>
+    <t>Atletico-GO</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>ATHLETICO-PR</t>
   </si>
 </sst>
 </file>
@@ -618,9 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -638,7 +636,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -646,7 +644,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -654,7 +652,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -662,82 +660,82 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,23 +743,23 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,215 +767,215 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
